--- a/interview.checklist.xlsx
+++ b/interview.checklist.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="初软工程师" sheetId="1" r:id="rId1"/>
+    <sheet name="高软工程师" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>应聘人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果知道并且用过（智能指针，boost库，STL库，和Qt库），那么一定用过并且懂得C++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.是否用过Visual Studio？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.在第三题的基础上，是否用过bash编程，是否用过linux的基本命令，是否用过基础的工具？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考察对第三题的说明，如果第四题中的编程和基本命令，基础工具都是用过，那么第三题的linux说明真的用过了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话面试初步筛查表（电话里面请说明，所有的作答，面试的时候可能都会问到，请如实回复）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.是否使用过python语言？是否使用过RE（正则表达式）模块，是否使用过XML模块，是否使用过PIPE（进程管道通讯编程），是否使用过cython？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果知道并且用过（RE，XML，PIPE，cython），那么一定用过并且懂得python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,11 +165,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果没有用过Git进行过版本管理，那么记录下来其他的版本管理工具是什么（方便面谈）？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.是否使用过virtuoso，calibre？是否使用virtuoso的skill语言编过程序，是否使用过tcl写过calibre的脚本？</t>
+    <t>如果知道并且用过（智能指针，boost库，STL库，和Qt库），就可以确定并且强化用过C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.是否编写过bash脚本，是否用过linux的基本命令（grep,awk,find），是否用过基本工具（vi,gedit)？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考察对第三题的说明，如果第四题中的编程和基本命令，基础工具都是用过，那么说明linux的确用过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.是否使用过python语言？是否使用过RE（正则表达式）模块，是否使用过XML模块，是否使用过PIPE（进程间管道通讯编程）模块，是否使用过cython模块？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有用过Git进行过版本管理，那么记录下来使用过的其他的版本管理工具是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.是否使用过virtuoso，calibre？是否编写过virtuoso的skill脚本，是否使用过tcl写过calibre的脚本？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初软加分题：8，7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有用过禅道进行过项目管理，那么记录下来使用过的其他的项目管理工具是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.是否使用过Git进行版本管理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 是否用过bugzilla进行缺陷管理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有用过bugzilla进行过缺陷管理，那么记录下来使用过的其他的缺陷管理工具是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 是否用过禅道进行项目管理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 是否使用scrum进行敏捷开发？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有使用scrum进行敏捷开发的话，那么记录下来使用什么方式的开发流程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 是否使用过prototype进行需求分析和原型开发？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有使用prototype进行需求分析和原型开发的话，那么记录下来使用什么方式的需求分析和原型开发？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 是否使用过C++？是否知道智能指针，boost库，STL库，Qt库？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.是否用过Visual Studio？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有用Visual Studio，其他的IDE（集成开发环境是什么？记录下来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.是否用过CentOS？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有用过CentOS，其他的linux系统（RedHat，Ubuntu，Suse）也可以，是什么，记录下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.是否用过GCC和Cmake，是否用过GDB？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果知道并且使用过，则对第一题和第三题，就进行了加强验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果知道并且用过（RE，XML，PIPE，cython），那么一定用过并且懂得python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 是否使用UML和Visio进行系统分析和系统设计？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有使用过UML和Visio进行系统分析和系统设计的话，那么记录下来使用什么方法的进行系统分析和系统设计？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 是否使用Jmeter进行性能测试，使用selenium进行自动化功能测试？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有使用过Jmeter和selenium进行自动化测试的话，那么记录下来使用什么平台和工具的进行自动化的性能和功能测试？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 是否使用过设计模式中的工厂模式，组合模式，和策略模式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有使用过上述模式进行系统设计的话，那么记录下来使用什么方法进行软件的设计？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 是否使用过virtuoso，calibre？是否编写过virtuoso的skill脚本，是否使用过tcl写过calibre的脚本？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 是否使用EDA工具进行过版图设计？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高软加分题： 16， 15， 14， 13， 12，11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +370,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +410,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -348,11 +489,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -362,6 +565,106 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -383,68 +686,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,378 +1034,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="6">
+        <v>60</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="2">
-        <v>60</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="A7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="A8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="2">
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="6">
         <v>35</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="24" t="s">
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="6">
         <v>35</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="A12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="6" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="9" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
+  <mergeCells count="44">
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="A12:N13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L9:N9"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
@@ -1135,31 +1434,15 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,14 +1452,682 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="5">
+        <v>38</v>
+      </c>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+    </row>
+    <row r="5" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="8">
+        <v>5</v>
+      </c>
+      <c r="L5" s="29">
+        <v>5</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="29">
+        <v>2</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="29">
+        <v>3</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="29">
+        <v>2</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="5">
+        <v>30</v>
+      </c>
+      <c r="L9" s="51">
+        <v>30</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+    </row>
+    <row r="10" spans="1:14" ht="43.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="8">
+        <v>10</v>
+      </c>
+      <c r="L10" s="29">
+        <v>5</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="8">
+        <v>10</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="8">
+        <v>10</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="8">
+        <v>25</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57">
+        <v>15</v>
+      </c>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+    </row>
+    <row r="15" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="8">
+        <v>25</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="8">
+        <v>20</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="8">
+        <v>15</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="5">
+        <v>30</v>
+      </c>
+      <c r="L18" s="51">
+        <v>30</v>
+      </c>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
+    </row>
+    <row r="19" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="8">
+        <v>15</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="1:14" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A25:N28"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
